--- a/Экономика/1.2. Определение себестоимости создания ПП.xlsx
+++ b/Экономика/1.2. Определение себестоимости создания ПП.xlsx
@@ -152,8 +152,8 @@
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3695700" cy="384810"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -216,7 +216,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1400" i="1">
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -255,7 +255,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -310,7 +310,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -483,7 +483,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -677,8 +677,8 @@
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1859280" cy="509498"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -714,6 +714,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -838,7 +839,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -929,8 +930,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1813560" cy="311496"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -966,6 +967,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1071,7 +1073,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1150,8 +1152,8 @@
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1813560" cy="327077"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1187,6 +1189,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1197,7 +1200,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1400" i="1">
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -1236,7 +1239,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1315,7 +1318,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1361,7 +1364,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1464,14 +1467,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="C5">
-            <v>3851.0625</v>
+        <row r="4">
+          <cell r="C4">
+            <v>6716</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10">
+            <v>3450</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1487,19 +1495,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="C4">
-            <v>6716</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="I10">
-            <v>3450</v>
+        <row r="5">
+          <cell r="C5">
+            <v>3851.0625</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1811,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="W1" s="1">
-        <f>[2]Лист1!C4</f>
+        <f>[1]Лист1!C4</f>
         <v>6716</v>
       </c>
     </row>
@@ -1823,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="W2" s="2">
-        <f>[1]Лист1!C5</f>
+        <f>[2]Лист1!C5</f>
         <v>3851.0625</v>
       </c>
     </row>
@@ -1845,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="1">
-        <f>[2]Лист1!I10</f>
+        <f>[1]Лист1!I10</f>
         <v>3450</v>
       </c>
     </row>

--- a/Экономика/1.2. Определение себестоимости создания ПП.xlsx
+++ b/Экономика/1.2. Определение себестоимости создания ПП.xlsx
@@ -1478,8 +1478,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1798,7 +1798,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
